--- a/time_metric.xlsx
+++ b/time_metric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DISCO_DURO\Mixto\Subjects\GitHub\MIRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07662366-92D6-4AC0-A278-84D1ECF8F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB626C5E-7D08-45B6-990E-F6756CFE4B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF2A21FD-84C2-4D1F-94D5-7BF6744B2786}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>BEST METRIC</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>0.9724/103.8</t>
+  </si>
+  <si>
+    <t>0.0205/50.01</t>
+  </si>
+  <si>
+    <t>-0.0004/108.33</t>
+  </si>
+  <si>
+    <t>0.0088/94.24</t>
+  </si>
+  <si>
+    <t>0.0382/108.55</t>
+  </si>
+  <si>
+    <t>-0.9918/39.86</t>
+  </si>
+  <si>
+    <t>-0.0079/104.75</t>
   </si>
 </sst>
 </file>
@@ -114,10 +132,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,7 +463,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,8 +471,7 @@
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -475,31 +501,55 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -507,5 +557,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>